--- a/names.xlsx
+++ b/names.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="278">
   <si>
     <t>id</t>
   </si>
@@ -850,6 +850,9 @@
   </si>
   <si>
     <t>Subjects;")</t>
+  </si>
+  <si>
+    <t>a1 &lt;- merge(a1, sqldf("select</t>
   </si>
 </sst>
 </file>
@@ -906,8 +909,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -937,7 +944,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -950,6 +957,8 @@
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -962,6 +971,8 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1293,8 +1304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5:Q8"/>
+    <sheetView tabSelected="1" topLeftCell="H40" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1436,7 +1447,7 @@
         <v>181</v>
       </c>
       <c r="J6" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="K6" t="s">
         <v>177</v>
@@ -1502,7 +1513,7 @@
         <v>182</v>
       </c>
       <c r="J7" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="K7" t="s">
         <v>177</v>
@@ -1511,7 +1522,7 @@
         <v>176</v>
       </c>
       <c r="M7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="M7:M8" si="4">B7</f>
         <v>avg(tBodyAccstdZ)</v>
       </c>
       <c r="N7" t="s">
@@ -1524,7 +1535,7 @@
         <v>270</v>
       </c>
       <c r="Q7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="Q7:Q8" si="5">A7</f>
         <v>tBodyAccstdZ</v>
       </c>
       <c r="R7" t="s">
@@ -1568,7 +1579,7 @@
         <v>183</v>
       </c>
       <c r="J8" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="K8" t="s">
         <v>177</v>
@@ -1577,7 +1588,7 @@
         <v>176</v>
       </c>
       <c r="M8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>avg(tGravityAccstdX)</v>
       </c>
       <c r="N8" t="s">
@@ -1590,7 +1601,7 @@
         <v>270</v>
       </c>
       <c r="Q8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>tGravityAccstdX</v>
       </c>
       <c r="R8" t="s">
@@ -1633,6 +1644,53 @@
       <c r="E9" t="s">
         <v>184</v>
       </c>
+      <c r="J9" t="s">
+        <v>277</v>
+      </c>
+      <c r="K9" t="s">
+        <v>177</v>
+      </c>
+      <c r="L9" t="s">
+        <v>176</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" ref="M9:M72" si="6">B9</f>
+        <v>avg(tGravityAccstdY)</v>
+      </c>
+      <c r="N9" t="s">
+        <v>268</v>
+      </c>
+      <c r="O9" t="s">
+        <v>269</v>
+      </c>
+      <c r="P9" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" ref="Q9:Q72" si="7">A9</f>
+        <v>tGravityAccstdY</v>
+      </c>
+      <c r="R9" t="s">
+        <v>271</v>
+      </c>
+      <c r="S9" t="s">
+        <v>272</v>
+      </c>
+      <c r="T9" t="s">
+        <v>273</v>
+      </c>
+      <c r="U9" t="s">
+        <v>274</v>
+      </c>
+      <c r="V9" t="s">
+        <v>275</v>
+      </c>
+      <c r="W9" t="s">
+        <v>177</v>
+      </c>
+      <c r="X9" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="10" spans="1:24">
       <c r="A10" t="s">
@@ -1652,6 +1710,53 @@
       <c r="E10" t="s">
         <v>185</v>
       </c>
+      <c r="J10" t="s">
+        <v>277</v>
+      </c>
+      <c r="K10" t="s">
+        <v>177</v>
+      </c>
+      <c r="L10" t="s">
+        <v>176</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="6"/>
+        <v>avg(tGravityAccstdZ)</v>
+      </c>
+      <c r="N10" t="s">
+        <v>268</v>
+      </c>
+      <c r="O10" t="s">
+        <v>269</v>
+      </c>
+      <c r="P10" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="7"/>
+        <v>tGravityAccstdZ</v>
+      </c>
+      <c r="R10" t="s">
+        <v>271</v>
+      </c>
+      <c r="S10" t="s">
+        <v>272</v>
+      </c>
+      <c r="T10" t="s">
+        <v>273</v>
+      </c>
+      <c r="U10" t="s">
+        <v>274</v>
+      </c>
+      <c r="V10" t="s">
+        <v>275</v>
+      </c>
+      <c r="W10" t="s">
+        <v>177</v>
+      </c>
+      <c r="X10" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="11" spans="1:24">
       <c r="A11" t="s">
@@ -1671,6 +1776,53 @@
       <c r="E11" t="s">
         <v>186</v>
       </c>
+      <c r="J11" t="s">
+        <v>277</v>
+      </c>
+      <c r="K11" t="s">
+        <v>177</v>
+      </c>
+      <c r="L11" t="s">
+        <v>176</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="6"/>
+        <v>avg(tBodyAccJerkstdX)</v>
+      </c>
+      <c r="N11" t="s">
+        <v>268</v>
+      </c>
+      <c r="O11" t="s">
+        <v>269</v>
+      </c>
+      <c r="P11" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" si="7"/>
+        <v>tBodyAccJerkstdX</v>
+      </c>
+      <c r="R11" t="s">
+        <v>271</v>
+      </c>
+      <c r="S11" t="s">
+        <v>272</v>
+      </c>
+      <c r="T11" t="s">
+        <v>273</v>
+      </c>
+      <c r="U11" t="s">
+        <v>274</v>
+      </c>
+      <c r="V11" t="s">
+        <v>275</v>
+      </c>
+      <c r="W11" t="s">
+        <v>177</v>
+      </c>
+      <c r="X11" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="12" spans="1:24">
       <c r="A12" t="s">
@@ -1690,6 +1842,53 @@
       <c r="E12" t="s">
         <v>187</v>
       </c>
+      <c r="J12" t="s">
+        <v>277</v>
+      </c>
+      <c r="K12" t="s">
+        <v>177</v>
+      </c>
+      <c r="L12" t="s">
+        <v>176</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="6"/>
+        <v>avg(tBodyAccJerkstdY)</v>
+      </c>
+      <c r="N12" t="s">
+        <v>268</v>
+      </c>
+      <c r="O12" t="s">
+        <v>269</v>
+      </c>
+      <c r="P12" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" si="7"/>
+        <v>tBodyAccJerkstdY</v>
+      </c>
+      <c r="R12" t="s">
+        <v>271</v>
+      </c>
+      <c r="S12" t="s">
+        <v>272</v>
+      </c>
+      <c r="T12" t="s">
+        <v>273</v>
+      </c>
+      <c r="U12" t="s">
+        <v>274</v>
+      </c>
+      <c r="V12" t="s">
+        <v>275</v>
+      </c>
+      <c r="W12" t="s">
+        <v>177</v>
+      </c>
+      <c r="X12" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="13" spans="1:24">
       <c r="A13" t="s">
@@ -1709,6 +1908,53 @@
       <c r="E13" t="s">
         <v>188</v>
       </c>
+      <c r="J13" t="s">
+        <v>277</v>
+      </c>
+      <c r="K13" t="s">
+        <v>177</v>
+      </c>
+      <c r="L13" t="s">
+        <v>176</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="6"/>
+        <v>avg(tBodyAccJerkstdZ)</v>
+      </c>
+      <c r="N13" t="s">
+        <v>268</v>
+      </c>
+      <c r="O13" t="s">
+        <v>269</v>
+      </c>
+      <c r="P13" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" si="7"/>
+        <v>tBodyAccJerkstdZ</v>
+      </c>
+      <c r="R13" t="s">
+        <v>271</v>
+      </c>
+      <c r="S13" t="s">
+        <v>272</v>
+      </c>
+      <c r="T13" t="s">
+        <v>273</v>
+      </c>
+      <c r="U13" t="s">
+        <v>274</v>
+      </c>
+      <c r="V13" t="s">
+        <v>275</v>
+      </c>
+      <c r="W13" t="s">
+        <v>177</v>
+      </c>
+      <c r="X13" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="14" spans="1:24">
       <c r="A14" t="s">
@@ -1728,6 +1974,53 @@
       <c r="E14" t="s">
         <v>189</v>
       </c>
+      <c r="J14" t="s">
+        <v>277</v>
+      </c>
+      <c r="K14" t="s">
+        <v>177</v>
+      </c>
+      <c r="L14" t="s">
+        <v>176</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="6"/>
+        <v>avg(tBodyGyrostdX)</v>
+      </c>
+      <c r="N14" t="s">
+        <v>268</v>
+      </c>
+      <c r="O14" t="s">
+        <v>269</v>
+      </c>
+      <c r="P14" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" si="7"/>
+        <v>tBodyGyrostdX</v>
+      </c>
+      <c r="R14" t="s">
+        <v>271</v>
+      </c>
+      <c r="S14" t="s">
+        <v>272</v>
+      </c>
+      <c r="T14" t="s">
+        <v>273</v>
+      </c>
+      <c r="U14" t="s">
+        <v>274</v>
+      </c>
+      <c r="V14" t="s">
+        <v>275</v>
+      </c>
+      <c r="W14" t="s">
+        <v>177</v>
+      </c>
+      <c r="X14" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="15" spans="1:24">
       <c r="A15" t="s">
@@ -1747,6 +2040,53 @@
       <c r="E15" t="s">
         <v>190</v>
       </c>
+      <c r="J15" t="s">
+        <v>277</v>
+      </c>
+      <c r="K15" t="s">
+        <v>177</v>
+      </c>
+      <c r="L15" t="s">
+        <v>176</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="6"/>
+        <v>avg(tBodyGyrostdY)</v>
+      </c>
+      <c r="N15" t="s">
+        <v>268</v>
+      </c>
+      <c r="O15" t="s">
+        <v>269</v>
+      </c>
+      <c r="P15" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="7"/>
+        <v>tBodyGyrostdY</v>
+      </c>
+      <c r="R15" t="s">
+        <v>271</v>
+      </c>
+      <c r="S15" t="s">
+        <v>272</v>
+      </c>
+      <c r="T15" t="s">
+        <v>273</v>
+      </c>
+      <c r="U15" t="s">
+        <v>274</v>
+      </c>
+      <c r="V15" t="s">
+        <v>275</v>
+      </c>
+      <c r="W15" t="s">
+        <v>177</v>
+      </c>
+      <c r="X15" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="16" spans="1:24">
       <c r="A16" t="s">
@@ -1766,8 +2106,55 @@
       <c r="E16" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="J16" t="s">
+        <v>277</v>
+      </c>
+      <c r="K16" t="s">
+        <v>177</v>
+      </c>
+      <c r="L16" t="s">
+        <v>176</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="6"/>
+        <v>avg(tBodyGyrostdZ)</v>
+      </c>
+      <c r="N16" t="s">
+        <v>268</v>
+      </c>
+      <c r="O16" t="s">
+        <v>269</v>
+      </c>
+      <c r="P16" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" si="7"/>
+        <v>tBodyGyrostdZ</v>
+      </c>
+      <c r="R16" t="s">
+        <v>271</v>
+      </c>
+      <c r="S16" t="s">
+        <v>272</v>
+      </c>
+      <c r="T16" t="s">
+        <v>273</v>
+      </c>
+      <c r="U16" t="s">
+        <v>274</v>
+      </c>
+      <c r="V16" t="s">
+        <v>275</v>
+      </c>
+      <c r="W16" t="s">
+        <v>177</v>
+      </c>
+      <c r="X16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1785,8 +2172,55 @@
       <c r="E17" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="J17" t="s">
+        <v>277</v>
+      </c>
+      <c r="K17" t="s">
+        <v>177</v>
+      </c>
+      <c r="L17" t="s">
+        <v>176</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="6"/>
+        <v>avg(tBodyGyroJerkstdX)</v>
+      </c>
+      <c r="N17" t="s">
+        <v>268</v>
+      </c>
+      <c r="O17" t="s">
+        <v>269</v>
+      </c>
+      <c r="P17" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" si="7"/>
+        <v>tBodyGyroJerkstdX</v>
+      </c>
+      <c r="R17" t="s">
+        <v>271</v>
+      </c>
+      <c r="S17" t="s">
+        <v>272</v>
+      </c>
+      <c r="T17" t="s">
+        <v>273</v>
+      </c>
+      <c r="U17" t="s">
+        <v>274</v>
+      </c>
+      <c r="V17" t="s">
+        <v>275</v>
+      </c>
+      <c r="W17" t="s">
+        <v>177</v>
+      </c>
+      <c r="X17" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1804,8 +2238,55 @@
       <c r="E18" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="J18" t="s">
+        <v>277</v>
+      </c>
+      <c r="K18" t="s">
+        <v>177</v>
+      </c>
+      <c r="L18" t="s">
+        <v>176</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="6"/>
+        <v>avg(tBodyGyroJerkstdY)</v>
+      </c>
+      <c r="N18" t="s">
+        <v>268</v>
+      </c>
+      <c r="O18" t="s">
+        <v>269</v>
+      </c>
+      <c r="P18" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q18" t="str">
+        <f t="shared" si="7"/>
+        <v>tBodyGyroJerkstdY</v>
+      </c>
+      <c r="R18" t="s">
+        <v>271</v>
+      </c>
+      <c r="S18" t="s">
+        <v>272</v>
+      </c>
+      <c r="T18" t="s">
+        <v>273</v>
+      </c>
+      <c r="U18" t="s">
+        <v>274</v>
+      </c>
+      <c r="V18" t="s">
+        <v>275</v>
+      </c>
+      <c r="W18" t="s">
+        <v>177</v>
+      </c>
+      <c r="X18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1823,8 +2304,55 @@
       <c r="E19" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="J19" t="s">
+        <v>277</v>
+      </c>
+      <c r="K19" t="s">
+        <v>177</v>
+      </c>
+      <c r="L19" t="s">
+        <v>176</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="6"/>
+        <v>avg(tBodyGyroJerkstdZ)</v>
+      </c>
+      <c r="N19" t="s">
+        <v>268</v>
+      </c>
+      <c r="O19" t="s">
+        <v>269</v>
+      </c>
+      <c r="P19" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q19" t="str">
+        <f t="shared" si="7"/>
+        <v>tBodyGyroJerkstdZ</v>
+      </c>
+      <c r="R19" t="s">
+        <v>271</v>
+      </c>
+      <c r="S19" t="s">
+        <v>272</v>
+      </c>
+      <c r="T19" t="s">
+        <v>273</v>
+      </c>
+      <c r="U19" t="s">
+        <v>274</v>
+      </c>
+      <c r="V19" t="s">
+        <v>275</v>
+      </c>
+      <c r="W19" t="s">
+        <v>177</v>
+      </c>
+      <c r="X19" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1842,8 +2370,55 @@
       <c r="E20" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="J20" t="s">
+        <v>277</v>
+      </c>
+      <c r="K20" t="s">
+        <v>177</v>
+      </c>
+      <c r="L20" t="s">
+        <v>176</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="6"/>
+        <v>avg(tBodyAccMagstd)</v>
+      </c>
+      <c r="N20" t="s">
+        <v>268</v>
+      </c>
+      <c r="O20" t="s">
+        <v>269</v>
+      </c>
+      <c r="P20" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q20" t="str">
+        <f t="shared" si="7"/>
+        <v>tBodyAccMagstd</v>
+      </c>
+      <c r="R20" t="s">
+        <v>271</v>
+      </c>
+      <c r="S20" t="s">
+        <v>272</v>
+      </c>
+      <c r="T20" t="s">
+        <v>273</v>
+      </c>
+      <c r="U20" t="s">
+        <v>274</v>
+      </c>
+      <c r="V20" t="s">
+        <v>275</v>
+      </c>
+      <c r="W20" t="s">
+        <v>177</v>
+      </c>
+      <c r="X20" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1861,8 +2436,55 @@
       <c r="E21" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="J21" t="s">
+        <v>277</v>
+      </c>
+      <c r="K21" t="s">
+        <v>177</v>
+      </c>
+      <c r="L21" t="s">
+        <v>176</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="6"/>
+        <v>avg(tGravityAccMagstd)</v>
+      </c>
+      <c r="N21" t="s">
+        <v>268</v>
+      </c>
+      <c r="O21" t="s">
+        <v>269</v>
+      </c>
+      <c r="P21" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q21" t="str">
+        <f t="shared" si="7"/>
+        <v>tGravityAccMagstd</v>
+      </c>
+      <c r="R21" t="s">
+        <v>271</v>
+      </c>
+      <c r="S21" t="s">
+        <v>272</v>
+      </c>
+      <c r="T21" t="s">
+        <v>273</v>
+      </c>
+      <c r="U21" t="s">
+        <v>274</v>
+      </c>
+      <c r="V21" t="s">
+        <v>275</v>
+      </c>
+      <c r="W21" t="s">
+        <v>177</v>
+      </c>
+      <c r="X21" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1880,8 +2502,55 @@
       <c r="E22" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="J22" t="s">
+        <v>277</v>
+      </c>
+      <c r="K22" t="s">
+        <v>177</v>
+      </c>
+      <c r="L22" t="s">
+        <v>176</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="6"/>
+        <v>avg(tBodyAccJerkMagstd)</v>
+      </c>
+      <c r="N22" t="s">
+        <v>268</v>
+      </c>
+      <c r="O22" t="s">
+        <v>269</v>
+      </c>
+      <c r="P22" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q22" t="str">
+        <f t="shared" si="7"/>
+        <v>tBodyAccJerkMagstd</v>
+      </c>
+      <c r="R22" t="s">
+        <v>271</v>
+      </c>
+      <c r="S22" t="s">
+        <v>272</v>
+      </c>
+      <c r="T22" t="s">
+        <v>273</v>
+      </c>
+      <c r="U22" t="s">
+        <v>274</v>
+      </c>
+      <c r="V22" t="s">
+        <v>275</v>
+      </c>
+      <c r="W22" t="s">
+        <v>177</v>
+      </c>
+      <c r="X22" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1899,8 +2568,55 @@
       <c r="E23" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="J23" t="s">
+        <v>277</v>
+      </c>
+      <c r="K23" t="s">
+        <v>177</v>
+      </c>
+      <c r="L23" t="s">
+        <v>176</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="6"/>
+        <v>avg(tBodyGyroMagstd)</v>
+      </c>
+      <c r="N23" t="s">
+        <v>268</v>
+      </c>
+      <c r="O23" t="s">
+        <v>269</v>
+      </c>
+      <c r="P23" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q23" t="str">
+        <f t="shared" si="7"/>
+        <v>tBodyGyroMagstd</v>
+      </c>
+      <c r="R23" t="s">
+        <v>271</v>
+      </c>
+      <c r="S23" t="s">
+        <v>272</v>
+      </c>
+      <c r="T23" t="s">
+        <v>273</v>
+      </c>
+      <c r="U23" t="s">
+        <v>274</v>
+      </c>
+      <c r="V23" t="s">
+        <v>275</v>
+      </c>
+      <c r="W23" t="s">
+        <v>177</v>
+      </c>
+      <c r="X23" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1918,8 +2634,55 @@
       <c r="E24" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="J24" t="s">
+        <v>277</v>
+      </c>
+      <c r="K24" t="s">
+        <v>177</v>
+      </c>
+      <c r="L24" t="s">
+        <v>176</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="6"/>
+        <v>avg(tBodyGyroJerkMagstd)</v>
+      </c>
+      <c r="N24" t="s">
+        <v>268</v>
+      </c>
+      <c r="O24" t="s">
+        <v>269</v>
+      </c>
+      <c r="P24" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q24" t="str">
+        <f t="shared" si="7"/>
+        <v>tBodyGyroJerkMagstd</v>
+      </c>
+      <c r="R24" t="s">
+        <v>271</v>
+      </c>
+      <c r="S24" t="s">
+        <v>272</v>
+      </c>
+      <c r="T24" t="s">
+        <v>273</v>
+      </c>
+      <c r="U24" t="s">
+        <v>274</v>
+      </c>
+      <c r="V24" t="s">
+        <v>275</v>
+      </c>
+      <c r="W24" t="s">
+        <v>177</v>
+      </c>
+      <c r="X24" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1937,8 +2700,55 @@
       <c r="E25" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="J25" t="s">
+        <v>277</v>
+      </c>
+      <c r="K25" t="s">
+        <v>177</v>
+      </c>
+      <c r="L25" t="s">
+        <v>176</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="6"/>
+        <v>avg(fBodyAccstdX)</v>
+      </c>
+      <c r="N25" t="s">
+        <v>268</v>
+      </c>
+      <c r="O25" t="s">
+        <v>269</v>
+      </c>
+      <c r="P25" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q25" t="str">
+        <f t="shared" si="7"/>
+        <v>fBodyAccstdX</v>
+      </c>
+      <c r="R25" t="s">
+        <v>271</v>
+      </c>
+      <c r="S25" t="s">
+        <v>272</v>
+      </c>
+      <c r="T25" t="s">
+        <v>273</v>
+      </c>
+      <c r="U25" t="s">
+        <v>274</v>
+      </c>
+      <c r="V25" t="s">
+        <v>275</v>
+      </c>
+      <c r="W25" t="s">
+        <v>177</v>
+      </c>
+      <c r="X25" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1956,8 +2766,55 @@
       <c r="E26" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="J26" t="s">
+        <v>277</v>
+      </c>
+      <c r="K26" t="s">
+        <v>177</v>
+      </c>
+      <c r="L26" t="s">
+        <v>176</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="6"/>
+        <v>avg(fBodyAccstdY)</v>
+      </c>
+      <c r="N26" t="s">
+        <v>268</v>
+      </c>
+      <c r="O26" t="s">
+        <v>269</v>
+      </c>
+      <c r="P26" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q26" t="str">
+        <f t="shared" si="7"/>
+        <v>fBodyAccstdY</v>
+      </c>
+      <c r="R26" t="s">
+        <v>271</v>
+      </c>
+      <c r="S26" t="s">
+        <v>272</v>
+      </c>
+      <c r="T26" t="s">
+        <v>273</v>
+      </c>
+      <c r="U26" t="s">
+        <v>274</v>
+      </c>
+      <c r="V26" t="s">
+        <v>275</v>
+      </c>
+      <c r="W26" t="s">
+        <v>177</v>
+      </c>
+      <c r="X26" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1975,8 +2832,55 @@
       <c r="E27" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="J27" t="s">
+        <v>277</v>
+      </c>
+      <c r="K27" t="s">
+        <v>177</v>
+      </c>
+      <c r="L27" t="s">
+        <v>176</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="6"/>
+        <v>avg(fBodyAccstdZ)</v>
+      </c>
+      <c r="N27" t="s">
+        <v>268</v>
+      </c>
+      <c r="O27" t="s">
+        <v>269</v>
+      </c>
+      <c r="P27" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q27" t="str">
+        <f t="shared" si="7"/>
+        <v>fBodyAccstdZ</v>
+      </c>
+      <c r="R27" t="s">
+        <v>271</v>
+      </c>
+      <c r="S27" t="s">
+        <v>272</v>
+      </c>
+      <c r="T27" t="s">
+        <v>273</v>
+      </c>
+      <c r="U27" t="s">
+        <v>274</v>
+      </c>
+      <c r="V27" t="s">
+        <v>275</v>
+      </c>
+      <c r="W27" t="s">
+        <v>177</v>
+      </c>
+      <c r="X27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1994,8 +2898,55 @@
       <c r="E28" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="J28" t="s">
+        <v>277</v>
+      </c>
+      <c r="K28" t="s">
+        <v>177</v>
+      </c>
+      <c r="L28" t="s">
+        <v>176</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="6"/>
+        <v>avg(fBodyAccJerkstdX)</v>
+      </c>
+      <c r="N28" t="s">
+        <v>268</v>
+      </c>
+      <c r="O28" t="s">
+        <v>269</v>
+      </c>
+      <c r="P28" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q28" t="str">
+        <f t="shared" si="7"/>
+        <v>fBodyAccJerkstdX</v>
+      </c>
+      <c r="R28" t="s">
+        <v>271</v>
+      </c>
+      <c r="S28" t="s">
+        <v>272</v>
+      </c>
+      <c r="T28" t="s">
+        <v>273</v>
+      </c>
+      <c r="U28" t="s">
+        <v>274</v>
+      </c>
+      <c r="V28" t="s">
+        <v>275</v>
+      </c>
+      <c r="W28" t="s">
+        <v>177</v>
+      </c>
+      <c r="X28" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2013,8 +2964,55 @@
       <c r="E29" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="J29" t="s">
+        <v>277</v>
+      </c>
+      <c r="K29" t="s">
+        <v>177</v>
+      </c>
+      <c r="L29" t="s">
+        <v>176</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="6"/>
+        <v>avg(fBodyAccJerkstdY)</v>
+      </c>
+      <c r="N29" t="s">
+        <v>268</v>
+      </c>
+      <c r="O29" t="s">
+        <v>269</v>
+      </c>
+      <c r="P29" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q29" t="str">
+        <f t="shared" si="7"/>
+        <v>fBodyAccJerkstdY</v>
+      </c>
+      <c r="R29" t="s">
+        <v>271</v>
+      </c>
+      <c r="S29" t="s">
+        <v>272</v>
+      </c>
+      <c r="T29" t="s">
+        <v>273</v>
+      </c>
+      <c r="U29" t="s">
+        <v>274</v>
+      </c>
+      <c r="V29" t="s">
+        <v>275</v>
+      </c>
+      <c r="W29" t="s">
+        <v>177</v>
+      </c>
+      <c r="X29" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2032,8 +3030,55 @@
       <c r="E30" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="J30" t="s">
+        <v>277</v>
+      </c>
+      <c r="K30" t="s">
+        <v>177</v>
+      </c>
+      <c r="L30" t="s">
+        <v>176</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="6"/>
+        <v>avg(fBodyAccJerkstdZ)</v>
+      </c>
+      <c r="N30" t="s">
+        <v>268</v>
+      </c>
+      <c r="O30" t="s">
+        <v>269</v>
+      </c>
+      <c r="P30" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q30" t="str">
+        <f t="shared" si="7"/>
+        <v>fBodyAccJerkstdZ</v>
+      </c>
+      <c r="R30" t="s">
+        <v>271</v>
+      </c>
+      <c r="S30" t="s">
+        <v>272</v>
+      </c>
+      <c r="T30" t="s">
+        <v>273</v>
+      </c>
+      <c r="U30" t="s">
+        <v>274</v>
+      </c>
+      <c r="V30" t="s">
+        <v>275</v>
+      </c>
+      <c r="W30" t="s">
+        <v>177</v>
+      </c>
+      <c r="X30" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2051,8 +3096,55 @@
       <c r="E31" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="J31" t="s">
+        <v>277</v>
+      </c>
+      <c r="K31" t="s">
+        <v>177</v>
+      </c>
+      <c r="L31" t="s">
+        <v>176</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="6"/>
+        <v>avg(fBodyGyrostdX)</v>
+      </c>
+      <c r="N31" t="s">
+        <v>268</v>
+      </c>
+      <c r="O31" t="s">
+        <v>269</v>
+      </c>
+      <c r="P31" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q31" t="str">
+        <f t="shared" si="7"/>
+        <v>fBodyGyrostdX</v>
+      </c>
+      <c r="R31" t="s">
+        <v>271</v>
+      </c>
+      <c r="S31" t="s">
+        <v>272</v>
+      </c>
+      <c r="T31" t="s">
+        <v>273</v>
+      </c>
+      <c r="U31" t="s">
+        <v>274</v>
+      </c>
+      <c r="V31" t="s">
+        <v>275</v>
+      </c>
+      <c r="W31" t="s">
+        <v>177</v>
+      </c>
+      <c r="X31" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2070,8 +3162,55 @@
       <c r="E32" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="J32" t="s">
+        <v>277</v>
+      </c>
+      <c r="K32" t="s">
+        <v>177</v>
+      </c>
+      <c r="L32" t="s">
+        <v>176</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="6"/>
+        <v>avg(fBodyGyrostdY)</v>
+      </c>
+      <c r="N32" t="s">
+        <v>268</v>
+      </c>
+      <c r="O32" t="s">
+        <v>269</v>
+      </c>
+      <c r="P32" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q32" t="str">
+        <f t="shared" si="7"/>
+        <v>fBodyGyrostdY</v>
+      </c>
+      <c r="R32" t="s">
+        <v>271</v>
+      </c>
+      <c r="S32" t="s">
+        <v>272</v>
+      </c>
+      <c r="T32" t="s">
+        <v>273</v>
+      </c>
+      <c r="U32" t="s">
+        <v>274</v>
+      </c>
+      <c r="V32" t="s">
+        <v>275</v>
+      </c>
+      <c r="W32" t="s">
+        <v>177</v>
+      </c>
+      <c r="X32" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2089,8 +3228,55 @@
       <c r="E33" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="J33" t="s">
+        <v>277</v>
+      </c>
+      <c r="K33" t="s">
+        <v>177</v>
+      </c>
+      <c r="L33" t="s">
+        <v>176</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="6"/>
+        <v>avg(fBodyGyrostdZ)</v>
+      </c>
+      <c r="N33" t="s">
+        <v>268</v>
+      </c>
+      <c r="O33" t="s">
+        <v>269</v>
+      </c>
+      <c r="P33" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q33" t="str">
+        <f t="shared" si="7"/>
+        <v>fBodyGyrostdZ</v>
+      </c>
+      <c r="R33" t="s">
+        <v>271</v>
+      </c>
+      <c r="S33" t="s">
+        <v>272</v>
+      </c>
+      <c r="T33" t="s">
+        <v>273</v>
+      </c>
+      <c r="U33" t="s">
+        <v>274</v>
+      </c>
+      <c r="V33" t="s">
+        <v>275</v>
+      </c>
+      <c r="W33" t="s">
+        <v>177</v>
+      </c>
+      <c r="X33" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2108,8 +3294,55 @@
       <c r="E34" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="J34" t="s">
+        <v>277</v>
+      </c>
+      <c r="K34" t="s">
+        <v>177</v>
+      </c>
+      <c r="L34" t="s">
+        <v>176</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="6"/>
+        <v>avg(fBodyAccMagstd)</v>
+      </c>
+      <c r="N34" t="s">
+        <v>268</v>
+      </c>
+      <c r="O34" t="s">
+        <v>269</v>
+      </c>
+      <c r="P34" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q34" t="str">
+        <f t="shared" si="7"/>
+        <v>fBodyAccMagstd</v>
+      </c>
+      <c r="R34" t="s">
+        <v>271</v>
+      </c>
+      <c r="S34" t="s">
+        <v>272</v>
+      </c>
+      <c r="T34" t="s">
+        <v>273</v>
+      </c>
+      <c r="U34" t="s">
+        <v>274</v>
+      </c>
+      <c r="V34" t="s">
+        <v>275</v>
+      </c>
+      <c r="W34" t="s">
+        <v>177</v>
+      </c>
+      <c r="X34" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2127,8 +3360,55 @@
       <c r="E35" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="J35" t="s">
+        <v>277</v>
+      </c>
+      <c r="K35" t="s">
+        <v>177</v>
+      </c>
+      <c r="L35" t="s">
+        <v>176</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" si="6"/>
+        <v>avg(fBodyBodyAccJerkMagstd)</v>
+      </c>
+      <c r="N35" t="s">
+        <v>268</v>
+      </c>
+      <c r="O35" t="s">
+        <v>269</v>
+      </c>
+      <c r="P35" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q35" t="str">
+        <f t="shared" si="7"/>
+        <v>fBodyBodyAccJerkMagstd</v>
+      </c>
+      <c r="R35" t="s">
+        <v>271</v>
+      </c>
+      <c r="S35" t="s">
+        <v>272</v>
+      </c>
+      <c r="T35" t="s">
+        <v>273</v>
+      </c>
+      <c r="U35" t="s">
+        <v>274</v>
+      </c>
+      <c r="V35" t="s">
+        <v>275</v>
+      </c>
+      <c r="W35" t="s">
+        <v>177</v>
+      </c>
+      <c r="X35" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2146,8 +3426,55 @@
       <c r="E36" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="J36" t="s">
+        <v>277</v>
+      </c>
+      <c r="K36" t="s">
+        <v>177</v>
+      </c>
+      <c r="L36" t="s">
+        <v>176</v>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" si="6"/>
+        <v>avg(fBodyBodyGyroMagstd)</v>
+      </c>
+      <c r="N36" t="s">
+        <v>268</v>
+      </c>
+      <c r="O36" t="s">
+        <v>269</v>
+      </c>
+      <c r="P36" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q36" t="str">
+        <f t="shared" si="7"/>
+        <v>fBodyBodyGyroMagstd</v>
+      </c>
+      <c r="R36" t="s">
+        <v>271</v>
+      </c>
+      <c r="S36" t="s">
+        <v>272</v>
+      </c>
+      <c r="T36" t="s">
+        <v>273</v>
+      </c>
+      <c r="U36" t="s">
+        <v>274</v>
+      </c>
+      <c r="V36" t="s">
+        <v>275</v>
+      </c>
+      <c r="W36" t="s">
+        <v>177</v>
+      </c>
+      <c r="X36" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2165,8 +3492,55 @@
       <c r="E37" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="J37" t="s">
+        <v>277</v>
+      </c>
+      <c r="K37" t="s">
+        <v>177</v>
+      </c>
+      <c r="L37" t="s">
+        <v>176</v>
+      </c>
+      <c r="M37" t="str">
+        <f t="shared" si="6"/>
+        <v>avg(fBodyBodyGyroJerkMagstd)</v>
+      </c>
+      <c r="N37" t="s">
+        <v>268</v>
+      </c>
+      <c r="O37" t="s">
+        <v>269</v>
+      </c>
+      <c r="P37" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q37" t="str">
+        <f t="shared" si="7"/>
+        <v>fBodyBodyGyroJerkMagstd</v>
+      </c>
+      <c r="R37" t="s">
+        <v>271</v>
+      </c>
+      <c r="S37" t="s">
+        <v>272</v>
+      </c>
+      <c r="T37" t="s">
+        <v>273</v>
+      </c>
+      <c r="U37" t="s">
+        <v>274</v>
+      </c>
+      <c r="V37" t="s">
+        <v>275</v>
+      </c>
+      <c r="W37" t="s">
+        <v>177</v>
+      </c>
+      <c r="X37" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -2184,8 +3558,55 @@
       <c r="E38" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="J38" t="s">
+        <v>277</v>
+      </c>
+      <c r="K38" t="s">
+        <v>177</v>
+      </c>
+      <c r="L38" t="s">
+        <v>176</v>
+      </c>
+      <c r="M38" t="str">
+        <f t="shared" si="6"/>
+        <v>avg(tBodyAccmeanX)</v>
+      </c>
+      <c r="N38" t="s">
+        <v>268</v>
+      </c>
+      <c r="O38" t="s">
+        <v>269</v>
+      </c>
+      <c r="P38" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q38" t="str">
+        <f t="shared" si="7"/>
+        <v>tBodyAccmeanX</v>
+      </c>
+      <c r="R38" t="s">
+        <v>271</v>
+      </c>
+      <c r="S38" t="s">
+        <v>272</v>
+      </c>
+      <c r="T38" t="s">
+        <v>273</v>
+      </c>
+      <c r="U38" t="s">
+        <v>274</v>
+      </c>
+      <c r="V38" t="s">
+        <v>275</v>
+      </c>
+      <c r="W38" t="s">
+        <v>177</v>
+      </c>
+      <c r="X38" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -2203,8 +3624,55 @@
       <c r="E39" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="J39" t="s">
+        <v>277</v>
+      </c>
+      <c r="K39" t="s">
+        <v>177</v>
+      </c>
+      <c r="L39" t="s">
+        <v>176</v>
+      </c>
+      <c r="M39" t="str">
+        <f t="shared" si="6"/>
+        <v>avg(tBodyAccmeanY)</v>
+      </c>
+      <c r="N39" t="s">
+        <v>268</v>
+      </c>
+      <c r="O39" t="s">
+        <v>269</v>
+      </c>
+      <c r="P39" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q39" t="str">
+        <f t="shared" si="7"/>
+        <v>tBodyAccmeanY</v>
+      </c>
+      <c r="R39" t="s">
+        <v>271</v>
+      </c>
+      <c r="S39" t="s">
+        <v>272</v>
+      </c>
+      <c r="T39" t="s">
+        <v>273</v>
+      </c>
+      <c r="U39" t="s">
+        <v>274</v>
+      </c>
+      <c r="V39" t="s">
+        <v>275</v>
+      </c>
+      <c r="W39" t="s">
+        <v>177</v>
+      </c>
+      <c r="X39" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -2222,8 +3690,55 @@
       <c r="E40" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="J40" t="s">
+        <v>277</v>
+      </c>
+      <c r="K40" t="s">
+        <v>177</v>
+      </c>
+      <c r="L40" t="s">
+        <v>176</v>
+      </c>
+      <c r="M40" t="str">
+        <f t="shared" si="6"/>
+        <v>avg(tBodyAccmeanZ)</v>
+      </c>
+      <c r="N40" t="s">
+        <v>268</v>
+      </c>
+      <c r="O40" t="s">
+        <v>269</v>
+      </c>
+      <c r="P40" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q40" t="str">
+        <f t="shared" si="7"/>
+        <v>tBodyAccmeanZ</v>
+      </c>
+      <c r="R40" t="s">
+        <v>271</v>
+      </c>
+      <c r="S40" t="s">
+        <v>272</v>
+      </c>
+      <c r="T40" t="s">
+        <v>273</v>
+      </c>
+      <c r="U40" t="s">
+        <v>274</v>
+      </c>
+      <c r="V40" t="s">
+        <v>275</v>
+      </c>
+      <c r="W40" t="s">
+        <v>177</v>
+      </c>
+      <c r="X40" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -2241,8 +3756,55 @@
       <c r="E41" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="J41" t="s">
+        <v>277</v>
+      </c>
+      <c r="K41" t="s">
+        <v>177</v>
+      </c>
+      <c r="L41" t="s">
+        <v>176</v>
+      </c>
+      <c r="M41" t="str">
+        <f t="shared" si="6"/>
+        <v>avg(tGravityAccmeanX)</v>
+      </c>
+      <c r="N41" t="s">
+        <v>268</v>
+      </c>
+      <c r="O41" t="s">
+        <v>269</v>
+      </c>
+      <c r="P41" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q41" t="str">
+        <f t="shared" si="7"/>
+        <v>tGravityAccmeanX</v>
+      </c>
+      <c r="R41" t="s">
+        <v>271</v>
+      </c>
+      <c r="S41" t="s">
+        <v>272</v>
+      </c>
+      <c r="T41" t="s">
+        <v>273</v>
+      </c>
+      <c r="U41" t="s">
+        <v>274</v>
+      </c>
+      <c r="V41" t="s">
+        <v>275</v>
+      </c>
+      <c r="W41" t="s">
+        <v>177</v>
+      </c>
+      <c r="X41" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -2260,8 +3822,55 @@
       <c r="E42" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="J42" t="s">
+        <v>277</v>
+      </c>
+      <c r="K42" t="s">
+        <v>177</v>
+      </c>
+      <c r="L42" t="s">
+        <v>176</v>
+      </c>
+      <c r="M42" t="str">
+        <f t="shared" si="6"/>
+        <v>avg(tGravityAccmeanY)</v>
+      </c>
+      <c r="N42" t="s">
+        <v>268</v>
+      </c>
+      <c r="O42" t="s">
+        <v>269</v>
+      </c>
+      <c r="P42" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q42" t="str">
+        <f t="shared" si="7"/>
+        <v>tGravityAccmeanY</v>
+      </c>
+      <c r="R42" t="s">
+        <v>271</v>
+      </c>
+      <c r="S42" t="s">
+        <v>272</v>
+      </c>
+      <c r="T42" t="s">
+        <v>273</v>
+      </c>
+      <c r="U42" t="s">
+        <v>274</v>
+      </c>
+      <c r="V42" t="s">
+        <v>275</v>
+      </c>
+      <c r="W42" t="s">
+        <v>177</v>
+      </c>
+      <c r="X42" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -2279,8 +3888,55 @@
       <c r="E43" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="J43" t="s">
+        <v>277</v>
+      </c>
+      <c r="K43" t="s">
+        <v>177</v>
+      </c>
+      <c r="L43" t="s">
+        <v>176</v>
+      </c>
+      <c r="M43" t="str">
+        <f t="shared" si="6"/>
+        <v>avg(tGravityAccmeanZ)</v>
+      </c>
+      <c r="N43" t="s">
+        <v>268</v>
+      </c>
+      <c r="O43" t="s">
+        <v>269</v>
+      </c>
+      <c r="P43" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q43" t="str">
+        <f t="shared" si="7"/>
+        <v>tGravityAccmeanZ</v>
+      </c>
+      <c r="R43" t="s">
+        <v>271</v>
+      </c>
+      <c r="S43" t="s">
+        <v>272</v>
+      </c>
+      <c r="T43" t="s">
+        <v>273</v>
+      </c>
+      <c r="U43" t="s">
+        <v>274</v>
+      </c>
+      <c r="V43" t="s">
+        <v>275</v>
+      </c>
+      <c r="W43" t="s">
+        <v>177</v>
+      </c>
+      <c r="X43" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -2298,8 +3954,55 @@
       <c r="E44" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="J44" t="s">
+        <v>277</v>
+      </c>
+      <c r="K44" t="s">
+        <v>177</v>
+      </c>
+      <c r="L44" t="s">
+        <v>176</v>
+      </c>
+      <c r="M44" t="str">
+        <f t="shared" si="6"/>
+        <v>avg(tBodyAccJerkmeanX)</v>
+      </c>
+      <c r="N44" t="s">
+        <v>268</v>
+      </c>
+      <c r="O44" t="s">
+        <v>269</v>
+      </c>
+      <c r="P44" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q44" t="str">
+        <f t="shared" si="7"/>
+        <v>tBodyAccJerkmeanX</v>
+      </c>
+      <c r="R44" t="s">
+        <v>271</v>
+      </c>
+      <c r="S44" t="s">
+        <v>272</v>
+      </c>
+      <c r="T44" t="s">
+        <v>273</v>
+      </c>
+      <c r="U44" t="s">
+        <v>274</v>
+      </c>
+      <c r="V44" t="s">
+        <v>275</v>
+      </c>
+      <c r="W44" t="s">
+        <v>177</v>
+      </c>
+      <c r="X44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -2317,8 +4020,55 @@
       <c r="E45" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="J45" t="s">
+        <v>277</v>
+      </c>
+      <c r="K45" t="s">
+        <v>177</v>
+      </c>
+      <c r="L45" t="s">
+        <v>176</v>
+      </c>
+      <c r="M45" t="str">
+        <f t="shared" si="6"/>
+        <v>avg(tBodyAccJerkmeanY)</v>
+      </c>
+      <c r="N45" t="s">
+        <v>268</v>
+      </c>
+      <c r="O45" t="s">
+        <v>269</v>
+      </c>
+      <c r="P45" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q45" t="str">
+        <f t="shared" si="7"/>
+        <v>tBodyAccJerkmeanY</v>
+      </c>
+      <c r="R45" t="s">
+        <v>271</v>
+      </c>
+      <c r="S45" t="s">
+        <v>272</v>
+      </c>
+      <c r="T45" t="s">
+        <v>273</v>
+      </c>
+      <c r="U45" t="s">
+        <v>274</v>
+      </c>
+      <c r="V45" t="s">
+        <v>275</v>
+      </c>
+      <c r="W45" t="s">
+        <v>177</v>
+      </c>
+      <c r="X45" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -2336,8 +4086,55 @@
       <c r="E46" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="J46" t="s">
+        <v>277</v>
+      </c>
+      <c r="K46" t="s">
+        <v>177</v>
+      </c>
+      <c r="L46" t="s">
+        <v>176</v>
+      </c>
+      <c r="M46" t="str">
+        <f t="shared" si="6"/>
+        <v>avg(tBodyAccJerkmeanZ)</v>
+      </c>
+      <c r="N46" t="s">
+        <v>268</v>
+      </c>
+      <c r="O46" t="s">
+        <v>269</v>
+      </c>
+      <c r="P46" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q46" t="str">
+        <f t="shared" si="7"/>
+        <v>tBodyAccJerkmeanZ</v>
+      </c>
+      <c r="R46" t="s">
+        <v>271</v>
+      </c>
+      <c r="S46" t="s">
+        <v>272</v>
+      </c>
+      <c r="T46" t="s">
+        <v>273</v>
+      </c>
+      <c r="U46" t="s">
+        <v>274</v>
+      </c>
+      <c r="V46" t="s">
+        <v>275</v>
+      </c>
+      <c r="W46" t="s">
+        <v>177</v>
+      </c>
+      <c r="X46" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -2355,8 +4152,55 @@
       <c r="E47" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="J47" t="s">
+        <v>277</v>
+      </c>
+      <c r="K47" t="s">
+        <v>177</v>
+      </c>
+      <c r="L47" t="s">
+        <v>176</v>
+      </c>
+      <c r="M47" t="str">
+        <f t="shared" si="6"/>
+        <v>avg(tBodyGyromeanX)</v>
+      </c>
+      <c r="N47" t="s">
+        <v>268</v>
+      </c>
+      <c r="O47" t="s">
+        <v>269</v>
+      </c>
+      <c r="P47" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q47" t="str">
+        <f t="shared" si="7"/>
+        <v>tBodyGyromeanX</v>
+      </c>
+      <c r="R47" t="s">
+        <v>271</v>
+      </c>
+      <c r="S47" t="s">
+        <v>272</v>
+      </c>
+      <c r="T47" t="s">
+        <v>273</v>
+      </c>
+      <c r="U47" t="s">
+        <v>274</v>
+      </c>
+      <c r="V47" t="s">
+        <v>275</v>
+      </c>
+      <c r="W47" t="s">
+        <v>177</v>
+      </c>
+      <c r="X47" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -2374,8 +4218,55 @@
       <c r="E48" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="J48" t="s">
+        <v>277</v>
+      </c>
+      <c r="K48" t="s">
+        <v>177</v>
+      </c>
+      <c r="L48" t="s">
+        <v>176</v>
+      </c>
+      <c r="M48" t="str">
+        <f t="shared" si="6"/>
+        <v>avg(tBodyGyromeanY)</v>
+      </c>
+      <c r="N48" t="s">
+        <v>268</v>
+      </c>
+      <c r="O48" t="s">
+        <v>269</v>
+      </c>
+      <c r="P48" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q48" t="str">
+        <f t="shared" si="7"/>
+        <v>tBodyGyromeanY</v>
+      </c>
+      <c r="R48" t="s">
+        <v>271</v>
+      </c>
+      <c r="S48" t="s">
+        <v>272</v>
+      </c>
+      <c r="T48" t="s">
+        <v>273</v>
+      </c>
+      <c r="U48" t="s">
+        <v>274</v>
+      </c>
+      <c r="V48" t="s">
+        <v>275</v>
+      </c>
+      <c r="W48" t="s">
+        <v>177</v>
+      </c>
+      <c r="X48" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -2393,8 +4284,55 @@
       <c r="E49" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="J49" t="s">
+        <v>277</v>
+      </c>
+      <c r="K49" t="s">
+        <v>177</v>
+      </c>
+      <c r="L49" t="s">
+        <v>176</v>
+      </c>
+      <c r="M49" t="str">
+        <f t="shared" si="6"/>
+        <v>avg(tBodyGyromeanZ)</v>
+      </c>
+      <c r="N49" t="s">
+        <v>268</v>
+      </c>
+      <c r="O49" t="s">
+        <v>269</v>
+      </c>
+      <c r="P49" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q49" t="str">
+        <f t="shared" si="7"/>
+        <v>tBodyGyromeanZ</v>
+      </c>
+      <c r="R49" t="s">
+        <v>271</v>
+      </c>
+      <c r="S49" t="s">
+        <v>272</v>
+      </c>
+      <c r="T49" t="s">
+        <v>273</v>
+      </c>
+      <c r="U49" t="s">
+        <v>274</v>
+      </c>
+      <c r="V49" t="s">
+        <v>275</v>
+      </c>
+      <c r="W49" t="s">
+        <v>177</v>
+      </c>
+      <c r="X49" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -2412,8 +4350,55 @@
       <c r="E50" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="J50" t="s">
+        <v>277</v>
+      </c>
+      <c r="K50" t="s">
+        <v>177</v>
+      </c>
+      <c r="L50" t="s">
+        <v>176</v>
+      </c>
+      <c r="M50" t="str">
+        <f t="shared" si="6"/>
+        <v>avg(tBodyGyroJerkmeanX)</v>
+      </c>
+      <c r="N50" t="s">
+        <v>268</v>
+      </c>
+      <c r="O50" t="s">
+        <v>269</v>
+      </c>
+      <c r="P50" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q50" t="str">
+        <f t="shared" si="7"/>
+        <v>tBodyGyroJerkmeanX</v>
+      </c>
+      <c r="R50" t="s">
+        <v>271</v>
+      </c>
+      <c r="S50" t="s">
+        <v>272</v>
+      </c>
+      <c r="T50" t="s">
+        <v>273</v>
+      </c>
+      <c r="U50" t="s">
+        <v>274</v>
+      </c>
+      <c r="V50" t="s">
+        <v>275</v>
+      </c>
+      <c r="W50" t="s">
+        <v>177</v>
+      </c>
+      <c r="X50" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -2431,8 +4416,55 @@
       <c r="E51" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="J51" t="s">
+        <v>277</v>
+      </c>
+      <c r="K51" t="s">
+        <v>177</v>
+      </c>
+      <c r="L51" t="s">
+        <v>176</v>
+      </c>
+      <c r="M51" t="str">
+        <f t="shared" si="6"/>
+        <v>avg(tBodyGyroJerkmeanY)</v>
+      </c>
+      <c r="N51" t="s">
+        <v>268</v>
+      </c>
+      <c r="O51" t="s">
+        <v>269</v>
+      </c>
+      <c r="P51" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q51" t="str">
+        <f t="shared" si="7"/>
+        <v>tBodyGyroJerkmeanY</v>
+      </c>
+      <c r="R51" t="s">
+        <v>271</v>
+      </c>
+      <c r="S51" t="s">
+        <v>272</v>
+      </c>
+      <c r="T51" t="s">
+        <v>273</v>
+      </c>
+      <c r="U51" t="s">
+        <v>274</v>
+      </c>
+      <c r="V51" t="s">
+        <v>275</v>
+      </c>
+      <c r="W51" t="s">
+        <v>177</v>
+      </c>
+      <c r="X51" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -2450,8 +4482,55 @@
       <c r="E52" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="J52" t="s">
+        <v>277</v>
+      </c>
+      <c r="K52" t="s">
+        <v>177</v>
+      </c>
+      <c r="L52" t="s">
+        <v>176</v>
+      </c>
+      <c r="M52" t="str">
+        <f t="shared" si="6"/>
+        <v>avg(tBodyGyroJerkmeanZ)</v>
+      </c>
+      <c r="N52" t="s">
+        <v>268</v>
+      </c>
+      <c r="O52" t="s">
+        <v>269</v>
+      </c>
+      <c r="P52" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q52" t="str">
+        <f t="shared" si="7"/>
+        <v>tBodyGyroJerkmeanZ</v>
+      </c>
+      <c r="R52" t="s">
+        <v>271</v>
+      </c>
+      <c r="S52" t="s">
+        <v>272</v>
+      </c>
+      <c r="T52" t="s">
+        <v>273</v>
+      </c>
+      <c r="U52" t="s">
+        <v>274</v>
+      </c>
+      <c r="V52" t="s">
+        <v>275</v>
+      </c>
+      <c r="W52" t="s">
+        <v>177</v>
+      </c>
+      <c r="X52" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -2469,8 +4548,55 @@
       <c r="E53" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="J53" t="s">
+        <v>277</v>
+      </c>
+      <c r="K53" t="s">
+        <v>177</v>
+      </c>
+      <c r="L53" t="s">
+        <v>176</v>
+      </c>
+      <c r="M53" t="str">
+        <f t="shared" si="6"/>
+        <v>avg(tBodyAccMagmean)</v>
+      </c>
+      <c r="N53" t="s">
+        <v>268</v>
+      </c>
+      <c r="O53" t="s">
+        <v>269</v>
+      </c>
+      <c r="P53" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q53" t="str">
+        <f t="shared" si="7"/>
+        <v>tBodyAccMagmean</v>
+      </c>
+      <c r="R53" t="s">
+        <v>271</v>
+      </c>
+      <c r="S53" t="s">
+        <v>272</v>
+      </c>
+      <c r="T53" t="s">
+        <v>273</v>
+      </c>
+      <c r="U53" t="s">
+        <v>274</v>
+      </c>
+      <c r="V53" t="s">
+        <v>275</v>
+      </c>
+      <c r="W53" t="s">
+        <v>177</v>
+      </c>
+      <c r="X53" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -2488,8 +4614,55 @@
       <c r="E54" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="J54" t="s">
+        <v>277</v>
+      </c>
+      <c r="K54" t="s">
+        <v>177</v>
+      </c>
+      <c r="L54" t="s">
+        <v>176</v>
+      </c>
+      <c r="M54" t="str">
+        <f t="shared" si="6"/>
+        <v>avg(tGravityAccMagmean)</v>
+      </c>
+      <c r="N54" t="s">
+        <v>268</v>
+      </c>
+      <c r="O54" t="s">
+        <v>269</v>
+      </c>
+      <c r="P54" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q54" t="str">
+        <f t="shared" si="7"/>
+        <v>tGravityAccMagmean</v>
+      </c>
+      <c r="R54" t="s">
+        <v>271</v>
+      </c>
+      <c r="S54" t="s">
+        <v>272</v>
+      </c>
+      <c r="T54" t="s">
+        <v>273</v>
+      </c>
+      <c r="U54" t="s">
+        <v>274</v>
+      </c>
+      <c r="V54" t="s">
+        <v>275</v>
+      </c>
+      <c r="W54" t="s">
+        <v>177</v>
+      </c>
+      <c r="X54" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -2507,8 +4680,55 @@
       <c r="E55" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="J55" t="s">
+        <v>277</v>
+      </c>
+      <c r="K55" t="s">
+        <v>177</v>
+      </c>
+      <c r="L55" t="s">
+        <v>176</v>
+      </c>
+      <c r="M55" t="str">
+        <f t="shared" si="6"/>
+        <v>avg(tBodyAccJerkMagmean)</v>
+      </c>
+      <c r="N55" t="s">
+        <v>268</v>
+      </c>
+      <c r="O55" t="s">
+        <v>269</v>
+      </c>
+      <c r="P55" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q55" t="str">
+        <f t="shared" si="7"/>
+        <v>tBodyAccJerkMagmean</v>
+      </c>
+      <c r="R55" t="s">
+        <v>271</v>
+      </c>
+      <c r="S55" t="s">
+        <v>272</v>
+      </c>
+      <c r="T55" t="s">
+        <v>273</v>
+      </c>
+      <c r="U55" t="s">
+        <v>274</v>
+      </c>
+      <c r="V55" t="s">
+        <v>275</v>
+      </c>
+      <c r="W55" t="s">
+        <v>177</v>
+      </c>
+      <c r="X55" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -2526,8 +4746,55 @@
       <c r="E56" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="J56" t="s">
+        <v>277</v>
+      </c>
+      <c r="K56" t="s">
+        <v>177</v>
+      </c>
+      <c r="L56" t="s">
+        <v>176</v>
+      </c>
+      <c r="M56" t="str">
+        <f t="shared" si="6"/>
+        <v>avg(tBodyGyroMagmean)</v>
+      </c>
+      <c r="N56" t="s">
+        <v>268</v>
+      </c>
+      <c r="O56" t="s">
+        <v>269</v>
+      </c>
+      <c r="P56" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q56" t="str">
+        <f t="shared" si="7"/>
+        <v>tBodyGyroMagmean</v>
+      </c>
+      <c r="R56" t="s">
+        <v>271</v>
+      </c>
+      <c r="S56" t="s">
+        <v>272</v>
+      </c>
+      <c r="T56" t="s">
+        <v>273</v>
+      </c>
+      <c r="U56" t="s">
+        <v>274</v>
+      </c>
+      <c r="V56" t="s">
+        <v>275</v>
+      </c>
+      <c r="W56" t="s">
+        <v>177</v>
+      </c>
+      <c r="X56" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -2545,8 +4812,55 @@
       <c r="E57" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="J57" t="s">
+        <v>277</v>
+      </c>
+      <c r="K57" t="s">
+        <v>177</v>
+      </c>
+      <c r="L57" t="s">
+        <v>176</v>
+      </c>
+      <c r="M57" t="str">
+        <f t="shared" si="6"/>
+        <v>avg(tBodyGyroJerkMagmean)</v>
+      </c>
+      <c r="N57" t="s">
+        <v>268</v>
+      </c>
+      <c r="O57" t="s">
+        <v>269</v>
+      </c>
+      <c r="P57" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q57" t="str">
+        <f t="shared" si="7"/>
+        <v>tBodyGyroJerkMagmean</v>
+      </c>
+      <c r="R57" t="s">
+        <v>271</v>
+      </c>
+      <c r="S57" t="s">
+        <v>272</v>
+      </c>
+      <c r="T57" t="s">
+        <v>273</v>
+      </c>
+      <c r="U57" t="s">
+        <v>274</v>
+      </c>
+      <c r="V57" t="s">
+        <v>275</v>
+      </c>
+      <c r="W57" t="s">
+        <v>177</v>
+      </c>
+      <c r="X57" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -2564,8 +4878,55 @@
       <c r="E58" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="J58" t="s">
+        <v>277</v>
+      </c>
+      <c r="K58" t="s">
+        <v>177</v>
+      </c>
+      <c r="L58" t="s">
+        <v>176</v>
+      </c>
+      <c r="M58" t="str">
+        <f t="shared" si="6"/>
+        <v>avg(fBodyAccmeanX)</v>
+      </c>
+      <c r="N58" t="s">
+        <v>268</v>
+      </c>
+      <c r="O58" t="s">
+        <v>269</v>
+      </c>
+      <c r="P58" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q58" t="str">
+        <f t="shared" si="7"/>
+        <v>fBodyAccmeanX</v>
+      </c>
+      <c r="R58" t="s">
+        <v>271</v>
+      </c>
+      <c r="S58" t="s">
+        <v>272</v>
+      </c>
+      <c r="T58" t="s">
+        <v>273</v>
+      </c>
+      <c r="U58" t="s">
+        <v>274</v>
+      </c>
+      <c r="V58" t="s">
+        <v>275</v>
+      </c>
+      <c r="W58" t="s">
+        <v>177</v>
+      </c>
+      <c r="X58" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -2583,8 +4944,55 @@
       <c r="E59" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="J59" t="s">
+        <v>277</v>
+      </c>
+      <c r="K59" t="s">
+        <v>177</v>
+      </c>
+      <c r="L59" t="s">
+        <v>176</v>
+      </c>
+      <c r="M59" t="str">
+        <f t="shared" si="6"/>
+        <v>avg(fBodyAccmeanY)</v>
+      </c>
+      <c r="N59" t="s">
+        <v>268</v>
+      </c>
+      <c r="O59" t="s">
+        <v>269</v>
+      </c>
+      <c r="P59" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q59" t="str">
+        <f t="shared" si="7"/>
+        <v>fBodyAccmeanY</v>
+      </c>
+      <c r="R59" t="s">
+        <v>271</v>
+      </c>
+      <c r="S59" t="s">
+        <v>272</v>
+      </c>
+      <c r="T59" t="s">
+        <v>273</v>
+      </c>
+      <c r="U59" t="s">
+        <v>274</v>
+      </c>
+      <c r="V59" t="s">
+        <v>275</v>
+      </c>
+      <c r="W59" t="s">
+        <v>177</v>
+      </c>
+      <c r="X59" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -2602,8 +5010,55 @@
       <c r="E60" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="J60" t="s">
+        <v>277</v>
+      </c>
+      <c r="K60" t="s">
+        <v>177</v>
+      </c>
+      <c r="L60" t="s">
+        <v>176</v>
+      </c>
+      <c r="M60" t="str">
+        <f t="shared" si="6"/>
+        <v>avg(fBodyAccmeanZ)</v>
+      </c>
+      <c r="N60" t="s">
+        <v>268</v>
+      </c>
+      <c r="O60" t="s">
+        <v>269</v>
+      </c>
+      <c r="P60" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q60" t="str">
+        <f t="shared" si="7"/>
+        <v>fBodyAccmeanZ</v>
+      </c>
+      <c r="R60" t="s">
+        <v>271</v>
+      </c>
+      <c r="S60" t="s">
+        <v>272</v>
+      </c>
+      <c r="T60" t="s">
+        <v>273</v>
+      </c>
+      <c r="U60" t="s">
+        <v>274</v>
+      </c>
+      <c r="V60" t="s">
+        <v>275</v>
+      </c>
+      <c r="W60" t="s">
+        <v>177</v>
+      </c>
+      <c r="X60" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -2621,8 +5076,55 @@
       <c r="E61" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="J61" t="s">
+        <v>277</v>
+      </c>
+      <c r="K61" t="s">
+        <v>177</v>
+      </c>
+      <c r="L61" t="s">
+        <v>176</v>
+      </c>
+      <c r="M61" t="str">
+        <f t="shared" si="6"/>
+        <v>avg(fBodyAccmeanFreqX)</v>
+      </c>
+      <c r="N61" t="s">
+        <v>268</v>
+      </c>
+      <c r="O61" t="s">
+        <v>269</v>
+      </c>
+      <c r="P61" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q61" t="str">
+        <f t="shared" si="7"/>
+        <v>fBodyAccmeanFreqX</v>
+      </c>
+      <c r="R61" t="s">
+        <v>271</v>
+      </c>
+      <c r="S61" t="s">
+        <v>272</v>
+      </c>
+      <c r="T61" t="s">
+        <v>273</v>
+      </c>
+      <c r="U61" t="s">
+        <v>274</v>
+      </c>
+      <c r="V61" t="s">
+        <v>275</v>
+      </c>
+      <c r="W61" t="s">
+        <v>177</v>
+      </c>
+      <c r="X61" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -2640,8 +5142,55 @@
       <c r="E62" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="J62" t="s">
+        <v>277</v>
+      </c>
+      <c r="K62" t="s">
+        <v>177</v>
+      </c>
+      <c r="L62" t="s">
+        <v>176</v>
+      </c>
+      <c r="M62" t="str">
+        <f t="shared" si="6"/>
+        <v>avg(fBodyAccmeanFreqY)</v>
+      </c>
+      <c r="N62" t="s">
+        <v>268</v>
+      </c>
+      <c r="O62" t="s">
+        <v>269</v>
+      </c>
+      <c r="P62" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q62" t="str">
+        <f t="shared" si="7"/>
+        <v>fBodyAccmeanFreqY</v>
+      </c>
+      <c r="R62" t="s">
+        <v>271</v>
+      </c>
+      <c r="S62" t="s">
+        <v>272</v>
+      </c>
+      <c r="T62" t="s">
+        <v>273</v>
+      </c>
+      <c r="U62" t="s">
+        <v>274</v>
+      </c>
+      <c r="V62" t="s">
+        <v>275</v>
+      </c>
+      <c r="W62" t="s">
+        <v>177</v>
+      </c>
+      <c r="X62" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -2659,8 +5208,55 @@
       <c r="E63" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="J63" t="s">
+        <v>277</v>
+      </c>
+      <c r="K63" t="s">
+        <v>177</v>
+      </c>
+      <c r="L63" t="s">
+        <v>176</v>
+      </c>
+      <c r="M63" t="str">
+        <f t="shared" si="6"/>
+        <v>avg(fBodyAccmeanFreqZ)</v>
+      </c>
+      <c r="N63" t="s">
+        <v>268</v>
+      </c>
+      <c r="O63" t="s">
+        <v>269</v>
+      </c>
+      <c r="P63" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q63" t="str">
+        <f t="shared" si="7"/>
+        <v>fBodyAccmeanFreqZ</v>
+      </c>
+      <c r="R63" t="s">
+        <v>271</v>
+      </c>
+      <c r="S63" t="s">
+        <v>272</v>
+      </c>
+      <c r="T63" t="s">
+        <v>273</v>
+      </c>
+      <c r="U63" t="s">
+        <v>274</v>
+      </c>
+      <c r="V63" t="s">
+        <v>275</v>
+      </c>
+      <c r="W63" t="s">
+        <v>177</v>
+      </c>
+      <c r="X63" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -2678,8 +5274,55 @@
       <c r="E64" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="J64" t="s">
+        <v>277</v>
+      </c>
+      <c r="K64" t="s">
+        <v>177</v>
+      </c>
+      <c r="L64" t="s">
+        <v>176</v>
+      </c>
+      <c r="M64" t="str">
+        <f t="shared" si="6"/>
+        <v>avg(fBodyAccJerkmeanX)</v>
+      </c>
+      <c r="N64" t="s">
+        <v>268</v>
+      </c>
+      <c r="O64" t="s">
+        <v>269</v>
+      </c>
+      <c r="P64" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q64" t="str">
+        <f t="shared" si="7"/>
+        <v>fBodyAccJerkmeanX</v>
+      </c>
+      <c r="R64" t="s">
+        <v>271</v>
+      </c>
+      <c r="S64" t="s">
+        <v>272</v>
+      </c>
+      <c r="T64" t="s">
+        <v>273</v>
+      </c>
+      <c r="U64" t="s">
+        <v>274</v>
+      </c>
+      <c r="V64" t="s">
+        <v>275</v>
+      </c>
+      <c r="W64" t="s">
+        <v>177</v>
+      </c>
+      <c r="X64" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -2697,8 +5340,55 @@
       <c r="E65" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="J65" t="s">
+        <v>277</v>
+      </c>
+      <c r="K65" t="s">
+        <v>177</v>
+      </c>
+      <c r="L65" t="s">
+        <v>176</v>
+      </c>
+      <c r="M65" t="str">
+        <f t="shared" si="6"/>
+        <v>avg(fBodyAccJerkmeanY)</v>
+      </c>
+      <c r="N65" t="s">
+        <v>268</v>
+      </c>
+      <c r="O65" t="s">
+        <v>269</v>
+      </c>
+      <c r="P65" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q65" t="str">
+        <f t="shared" si="7"/>
+        <v>fBodyAccJerkmeanY</v>
+      </c>
+      <c r="R65" t="s">
+        <v>271</v>
+      </c>
+      <c r="S65" t="s">
+        <v>272</v>
+      </c>
+      <c r="T65" t="s">
+        <v>273</v>
+      </c>
+      <c r="U65" t="s">
+        <v>274</v>
+      </c>
+      <c r="V65" t="s">
+        <v>275</v>
+      </c>
+      <c r="W65" t="s">
+        <v>177</v>
+      </c>
+      <c r="X65" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -2716,8 +5406,55 @@
       <c r="E66" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="J66" t="s">
+        <v>277</v>
+      </c>
+      <c r="K66" t="s">
+        <v>177</v>
+      </c>
+      <c r="L66" t="s">
+        <v>176</v>
+      </c>
+      <c r="M66" t="str">
+        <f t="shared" si="6"/>
+        <v>avg(fBodyAccJerkmeanZ)</v>
+      </c>
+      <c r="N66" t="s">
+        <v>268</v>
+      </c>
+      <c r="O66" t="s">
+        <v>269</v>
+      </c>
+      <c r="P66" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q66" t="str">
+        <f t="shared" si="7"/>
+        <v>fBodyAccJerkmeanZ</v>
+      </c>
+      <c r="R66" t="s">
+        <v>271</v>
+      </c>
+      <c r="S66" t="s">
+        <v>272</v>
+      </c>
+      <c r="T66" t="s">
+        <v>273</v>
+      </c>
+      <c r="U66" t="s">
+        <v>274</v>
+      </c>
+      <c r="V66" t="s">
+        <v>275</v>
+      </c>
+      <c r="W66" t="s">
+        <v>177</v>
+      </c>
+      <c r="X66" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -2735,8 +5472,55 @@
       <c r="E67" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="J67" t="s">
+        <v>277</v>
+      </c>
+      <c r="K67" t="s">
+        <v>177</v>
+      </c>
+      <c r="L67" t="s">
+        <v>176</v>
+      </c>
+      <c r="M67" t="str">
+        <f t="shared" si="6"/>
+        <v>avg(fBodyAccJerkmeanFreqX)</v>
+      </c>
+      <c r="N67" t="s">
+        <v>268</v>
+      </c>
+      <c r="O67" t="s">
+        <v>269</v>
+      </c>
+      <c r="P67" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q67" t="str">
+        <f t="shared" si="7"/>
+        <v>fBodyAccJerkmeanFreqX</v>
+      </c>
+      <c r="R67" t="s">
+        <v>271</v>
+      </c>
+      <c r="S67" t="s">
+        <v>272</v>
+      </c>
+      <c r="T67" t="s">
+        <v>273</v>
+      </c>
+      <c r="U67" t="s">
+        <v>274</v>
+      </c>
+      <c r="V67" t="s">
+        <v>275</v>
+      </c>
+      <c r="W67" t="s">
+        <v>177</v>
+      </c>
+      <c r="X67" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -2754,8 +5538,55 @@
       <c r="E68" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="J68" t="s">
+        <v>277</v>
+      </c>
+      <c r="K68" t="s">
+        <v>177</v>
+      </c>
+      <c r="L68" t="s">
+        <v>176</v>
+      </c>
+      <c r="M68" t="str">
+        <f t="shared" si="6"/>
+        <v>avg(fBodyAccJerkmeanFreqY)</v>
+      </c>
+      <c r="N68" t="s">
+        <v>268</v>
+      </c>
+      <c r="O68" t="s">
+        <v>269</v>
+      </c>
+      <c r="P68" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q68" t="str">
+        <f t="shared" si="7"/>
+        <v>fBodyAccJerkmeanFreqY</v>
+      </c>
+      <c r="R68" t="s">
+        <v>271</v>
+      </c>
+      <c r="S68" t="s">
+        <v>272</v>
+      </c>
+      <c r="T68" t="s">
+        <v>273</v>
+      </c>
+      <c r="U68" t="s">
+        <v>274</v>
+      </c>
+      <c r="V68" t="s">
+        <v>275</v>
+      </c>
+      <c r="W68" t="s">
+        <v>177</v>
+      </c>
+      <c r="X68" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -2773,393 +5604,1380 @@
       <c r="E69" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="J69" t="s">
+        <v>277</v>
+      </c>
+      <c r="K69" t="s">
+        <v>177</v>
+      </c>
+      <c r="L69" t="s">
+        <v>176</v>
+      </c>
+      <c r="M69" t="str">
+        <f t="shared" si="6"/>
+        <v>avg(fBodyAccJerkmeanFreqZ)</v>
+      </c>
+      <c r="N69" t="s">
+        <v>268</v>
+      </c>
+      <c r="O69" t="s">
+        <v>269</v>
+      </c>
+      <c r="P69" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q69" t="str">
+        <f t="shared" si="7"/>
+        <v>fBodyAccJerkmeanFreqZ</v>
+      </c>
+      <c r="R69" t="s">
+        <v>271</v>
+      </c>
+      <c r="S69" t="s">
+        <v>272</v>
+      </c>
+      <c r="T69" t="s">
+        <v>273</v>
+      </c>
+      <c r="U69" t="s">
+        <v>274</v>
+      </c>
+      <c r="V69" t="s">
+        <v>275</v>
+      </c>
+      <c r="W69" t="s">
+        <v>177</v>
+      </c>
+      <c r="X69" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24">
       <c r="A70" t="s">
         <v>68</v>
       </c>
       <c r="B70" t="str">
-        <f t="shared" ref="B70:B90" si="4">"avg("&amp;A70&amp;")"</f>
+        <f t="shared" ref="B70:B90" si="8">"avg("&amp;A70&amp;")"</f>
         <v>avg(fBodyGyromeanX)</v>
       </c>
       <c r="C70" t="s">
         <v>155</v>
       </c>
       <c r="D70" t="str">
-        <f t="shared" ref="D70:D90" si="5">A70&amp;" IS NOT NULL AND"</f>
+        <f t="shared" ref="D70:D90" si="9">A70&amp;" IS NOT NULL AND"</f>
         <v>fBodyGyromeanX IS NOT NULL AND</v>
       </c>
       <c r="E70" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="J70" t="s">
+        <v>277</v>
+      </c>
+      <c r="K70" t="s">
+        <v>177</v>
+      </c>
+      <c r="L70" t="s">
+        <v>176</v>
+      </c>
+      <c r="M70" t="str">
+        <f t="shared" si="6"/>
+        <v>avg(fBodyGyromeanX)</v>
+      </c>
+      <c r="N70" t="s">
+        <v>268</v>
+      </c>
+      <c r="O70" t="s">
+        <v>269</v>
+      </c>
+      <c r="P70" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q70" t="str">
+        <f t="shared" si="7"/>
+        <v>fBodyGyromeanX</v>
+      </c>
+      <c r="R70" t="s">
+        <v>271</v>
+      </c>
+      <c r="S70" t="s">
+        <v>272</v>
+      </c>
+      <c r="T70" t="s">
+        <v>273</v>
+      </c>
+      <c r="U70" t="s">
+        <v>274</v>
+      </c>
+      <c r="V70" t="s">
+        <v>275</v>
+      </c>
+      <c r="W70" t="s">
+        <v>177</v>
+      </c>
+      <c r="X70" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24">
       <c r="A71" t="s">
         <v>69</v>
       </c>
       <c r="B71" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>avg(fBodyGyromeanY)</v>
       </c>
       <c r="C71" t="s">
         <v>156</v>
       </c>
       <c r="D71" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>fBodyGyromeanY IS NOT NULL AND</v>
       </c>
       <c r="E71" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="J71" t="s">
+        <v>277</v>
+      </c>
+      <c r="K71" t="s">
+        <v>177</v>
+      </c>
+      <c r="L71" t="s">
+        <v>176</v>
+      </c>
+      <c r="M71" t="str">
+        <f t="shared" si="6"/>
+        <v>avg(fBodyGyromeanY)</v>
+      </c>
+      <c r="N71" t="s">
+        <v>268</v>
+      </c>
+      <c r="O71" t="s">
+        <v>269</v>
+      </c>
+      <c r="P71" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q71" t="str">
+        <f t="shared" si="7"/>
+        <v>fBodyGyromeanY</v>
+      </c>
+      <c r="R71" t="s">
+        <v>271</v>
+      </c>
+      <c r="S71" t="s">
+        <v>272</v>
+      </c>
+      <c r="T71" t="s">
+        <v>273</v>
+      </c>
+      <c r="U71" t="s">
+        <v>274</v>
+      </c>
+      <c r="V71" t="s">
+        <v>275</v>
+      </c>
+      <c r="W71" t="s">
+        <v>177</v>
+      </c>
+      <c r="X71" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24">
       <c r="A72" t="s">
         <v>70</v>
       </c>
       <c r="B72" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>avg(fBodyGyromeanZ)</v>
       </c>
       <c r="C72" t="s">
         <v>157</v>
       </c>
       <c r="D72" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>fBodyGyromeanZ IS NOT NULL AND</v>
       </c>
       <c r="E72" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="J72" t="s">
+        <v>277</v>
+      </c>
+      <c r="K72" t="s">
+        <v>177</v>
+      </c>
+      <c r="L72" t="s">
+        <v>176</v>
+      </c>
+      <c r="M72" t="str">
+        <f t="shared" si="6"/>
+        <v>avg(fBodyGyromeanZ)</v>
+      </c>
+      <c r="N72" t="s">
+        <v>268</v>
+      </c>
+      <c r="O72" t="s">
+        <v>269</v>
+      </c>
+      <c r="P72" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q72" t="str">
+        <f t="shared" si="7"/>
+        <v>fBodyGyromeanZ</v>
+      </c>
+      <c r="R72" t="s">
+        <v>271</v>
+      </c>
+      <c r="S72" t="s">
+        <v>272</v>
+      </c>
+      <c r="T72" t="s">
+        <v>273</v>
+      </c>
+      <c r="U72" t="s">
+        <v>274</v>
+      </c>
+      <c r="V72" t="s">
+        <v>275</v>
+      </c>
+      <c r="W72" t="s">
+        <v>177</v>
+      </c>
+      <c r="X72" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24">
       <c r="A73" t="s">
         <v>71</v>
       </c>
       <c r="B73" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>avg(fBodyGyromeanFreqX)</v>
       </c>
       <c r="C73" t="s">
         <v>158</v>
       </c>
       <c r="D73" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>fBodyGyromeanFreqX IS NOT NULL AND</v>
       </c>
       <c r="E73" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="J73" t="s">
+        <v>277</v>
+      </c>
+      <c r="K73" t="s">
+        <v>177</v>
+      </c>
+      <c r="L73" t="s">
+        <v>176</v>
+      </c>
+      <c r="M73" t="str">
+        <f t="shared" ref="M73:M90" si="10">B73</f>
+        <v>avg(fBodyGyromeanFreqX)</v>
+      </c>
+      <c r="N73" t="s">
+        <v>268</v>
+      </c>
+      <c r="O73" t="s">
+        <v>269</v>
+      </c>
+      <c r="P73" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q73" t="str">
+        <f t="shared" ref="Q73:Q90" si="11">A73</f>
+        <v>fBodyGyromeanFreqX</v>
+      </c>
+      <c r="R73" t="s">
+        <v>271</v>
+      </c>
+      <c r="S73" t="s">
+        <v>272</v>
+      </c>
+      <c r="T73" t="s">
+        <v>273</v>
+      </c>
+      <c r="U73" t="s">
+        <v>274</v>
+      </c>
+      <c r="V73" t="s">
+        <v>275</v>
+      </c>
+      <c r="W73" t="s">
+        <v>177</v>
+      </c>
+      <c r="X73" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24">
       <c r="A74" t="s">
         <v>72</v>
       </c>
       <c r="B74" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>avg(fBodyGyromeanFreqY)</v>
       </c>
       <c r="C74" t="s">
         <v>159</v>
       </c>
       <c r="D74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>fBodyGyromeanFreqY IS NOT NULL AND</v>
       </c>
       <c r="E74" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="J74" t="s">
+        <v>277</v>
+      </c>
+      <c r="K74" t="s">
+        <v>177</v>
+      </c>
+      <c r="L74" t="s">
+        <v>176</v>
+      </c>
+      <c r="M74" t="str">
+        <f t="shared" si="10"/>
+        <v>avg(fBodyGyromeanFreqY)</v>
+      </c>
+      <c r="N74" t="s">
+        <v>268</v>
+      </c>
+      <c r="O74" t="s">
+        <v>269</v>
+      </c>
+      <c r="P74" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q74" t="str">
+        <f t="shared" si="11"/>
+        <v>fBodyGyromeanFreqY</v>
+      </c>
+      <c r="R74" t="s">
+        <v>271</v>
+      </c>
+      <c r="S74" t="s">
+        <v>272</v>
+      </c>
+      <c r="T74" t="s">
+        <v>273</v>
+      </c>
+      <c r="U74" t="s">
+        <v>274</v>
+      </c>
+      <c r="V74" t="s">
+        <v>275</v>
+      </c>
+      <c r="W74" t="s">
+        <v>177</v>
+      </c>
+      <c r="X74" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24">
       <c r="A75" t="s">
         <v>73</v>
       </c>
       <c r="B75" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>avg(fBodyGyromeanFreqZ)</v>
       </c>
       <c r="C75" t="s">
         <v>160</v>
       </c>
       <c r="D75" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>fBodyGyromeanFreqZ IS NOT NULL AND</v>
       </c>
       <c r="E75" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="J75" t="s">
+        <v>277</v>
+      </c>
+      <c r="K75" t="s">
+        <v>177</v>
+      </c>
+      <c r="L75" t="s">
+        <v>176</v>
+      </c>
+      <c r="M75" t="str">
+        <f t="shared" si="10"/>
+        <v>avg(fBodyGyromeanFreqZ)</v>
+      </c>
+      <c r="N75" t="s">
+        <v>268</v>
+      </c>
+      <c r="O75" t="s">
+        <v>269</v>
+      </c>
+      <c r="P75" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q75" t="str">
+        <f t="shared" si="11"/>
+        <v>fBodyGyromeanFreqZ</v>
+      </c>
+      <c r="R75" t="s">
+        <v>271</v>
+      </c>
+      <c r="S75" t="s">
+        <v>272</v>
+      </c>
+      <c r="T75" t="s">
+        <v>273</v>
+      </c>
+      <c r="U75" t="s">
+        <v>274</v>
+      </c>
+      <c r="V75" t="s">
+        <v>275</v>
+      </c>
+      <c r="W75" t="s">
+        <v>177</v>
+      </c>
+      <c r="X75" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24">
       <c r="A76" t="s">
         <v>74</v>
       </c>
       <c r="B76" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>avg(fBodyAccMagmean)</v>
       </c>
       <c r="C76" t="s">
         <v>161</v>
       </c>
       <c r="D76" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>fBodyAccMagmean IS NOT NULL AND</v>
       </c>
       <c r="E76" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="J76" t="s">
+        <v>277</v>
+      </c>
+      <c r="K76" t="s">
+        <v>177</v>
+      </c>
+      <c r="L76" t="s">
+        <v>176</v>
+      </c>
+      <c r="M76" t="str">
+        <f t="shared" si="10"/>
+        <v>avg(fBodyAccMagmean)</v>
+      </c>
+      <c r="N76" t="s">
+        <v>268</v>
+      </c>
+      <c r="O76" t="s">
+        <v>269</v>
+      </c>
+      <c r="P76" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q76" t="str">
+        <f t="shared" si="11"/>
+        <v>fBodyAccMagmean</v>
+      </c>
+      <c r="R76" t="s">
+        <v>271</v>
+      </c>
+      <c r="S76" t="s">
+        <v>272</v>
+      </c>
+      <c r="T76" t="s">
+        <v>273</v>
+      </c>
+      <c r="U76" t="s">
+        <v>274</v>
+      </c>
+      <c r="V76" t="s">
+        <v>275</v>
+      </c>
+      <c r="W76" t="s">
+        <v>177</v>
+      </c>
+      <c r="X76" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24">
       <c r="A77" t="s">
         <v>75</v>
       </c>
       <c r="B77" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>avg(fBodyAccMagmeanFreq)</v>
       </c>
       <c r="C77" t="s">
         <v>162</v>
       </c>
       <c r="D77" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>fBodyAccMagmeanFreq IS NOT NULL AND</v>
       </c>
       <c r="E77" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="J77" t="s">
+        <v>277</v>
+      </c>
+      <c r="K77" t="s">
+        <v>177</v>
+      </c>
+      <c r="L77" t="s">
+        <v>176</v>
+      </c>
+      <c r="M77" t="str">
+        <f t="shared" si="10"/>
+        <v>avg(fBodyAccMagmeanFreq)</v>
+      </c>
+      <c r="N77" t="s">
+        <v>268</v>
+      </c>
+      <c r="O77" t="s">
+        <v>269</v>
+      </c>
+      <c r="P77" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q77" t="str">
+        <f t="shared" si="11"/>
+        <v>fBodyAccMagmeanFreq</v>
+      </c>
+      <c r="R77" t="s">
+        <v>271</v>
+      </c>
+      <c r="S77" t="s">
+        <v>272</v>
+      </c>
+      <c r="T77" t="s">
+        <v>273</v>
+      </c>
+      <c r="U77" t="s">
+        <v>274</v>
+      </c>
+      <c r="V77" t="s">
+        <v>275</v>
+      </c>
+      <c r="W77" t="s">
+        <v>177</v>
+      </c>
+      <c r="X77" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24">
       <c r="A78" t="s">
         <v>76</v>
       </c>
       <c r="B78" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>avg(fBodyBodyAccJerkMagmean)</v>
       </c>
       <c r="C78" t="s">
         <v>163</v>
       </c>
       <c r="D78" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>fBodyBodyAccJerkMagmean IS NOT NULL AND</v>
       </c>
       <c r="E78" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="J78" t="s">
+        <v>277</v>
+      </c>
+      <c r="K78" t="s">
+        <v>177</v>
+      </c>
+      <c r="L78" t="s">
+        <v>176</v>
+      </c>
+      <c r="M78" t="str">
+        <f t="shared" si="10"/>
+        <v>avg(fBodyBodyAccJerkMagmean)</v>
+      </c>
+      <c r="N78" t="s">
+        <v>268</v>
+      </c>
+      <c r="O78" t="s">
+        <v>269</v>
+      </c>
+      <c r="P78" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q78" t="str">
+        <f t="shared" si="11"/>
+        <v>fBodyBodyAccJerkMagmean</v>
+      </c>
+      <c r="R78" t="s">
+        <v>271</v>
+      </c>
+      <c r="S78" t="s">
+        <v>272</v>
+      </c>
+      <c r="T78" t="s">
+        <v>273</v>
+      </c>
+      <c r="U78" t="s">
+        <v>274</v>
+      </c>
+      <c r="V78" t="s">
+        <v>275</v>
+      </c>
+      <c r="W78" t="s">
+        <v>177</v>
+      </c>
+      <c r="X78" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24">
       <c r="A79" t="s">
         <v>77</v>
       </c>
       <c r="B79" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>avg(fBodyBodyAccJerkMagmeanFreq)</v>
       </c>
       <c r="C79" t="s">
         <v>164</v>
       </c>
       <c r="D79" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>fBodyBodyAccJerkMagmeanFreq IS NOT NULL AND</v>
       </c>
       <c r="E79" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="J79" t="s">
+        <v>277</v>
+      </c>
+      <c r="K79" t="s">
+        <v>177</v>
+      </c>
+      <c r="L79" t="s">
+        <v>176</v>
+      </c>
+      <c r="M79" t="str">
+        <f t="shared" si="10"/>
+        <v>avg(fBodyBodyAccJerkMagmeanFreq)</v>
+      </c>
+      <c r="N79" t="s">
+        <v>268</v>
+      </c>
+      <c r="O79" t="s">
+        <v>269</v>
+      </c>
+      <c r="P79" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q79" t="str">
+        <f t="shared" si="11"/>
+        <v>fBodyBodyAccJerkMagmeanFreq</v>
+      </c>
+      <c r="R79" t="s">
+        <v>271</v>
+      </c>
+      <c r="S79" t="s">
+        <v>272</v>
+      </c>
+      <c r="T79" t="s">
+        <v>273</v>
+      </c>
+      <c r="U79" t="s">
+        <v>274</v>
+      </c>
+      <c r="V79" t="s">
+        <v>275</v>
+      </c>
+      <c r="W79" t="s">
+        <v>177</v>
+      </c>
+      <c r="X79" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24">
       <c r="A80" t="s">
         <v>78</v>
       </c>
       <c r="B80" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>avg(fBodyBodyGyroMagmean)</v>
       </c>
       <c r="C80" t="s">
         <v>165</v>
       </c>
       <c r="D80" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>fBodyBodyGyroMagmean IS NOT NULL AND</v>
       </c>
       <c r="E80" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="J80" t="s">
+        <v>277</v>
+      </c>
+      <c r="K80" t="s">
+        <v>177</v>
+      </c>
+      <c r="L80" t="s">
+        <v>176</v>
+      </c>
+      <c r="M80" t="str">
+        <f t="shared" si="10"/>
+        <v>avg(fBodyBodyGyroMagmean)</v>
+      </c>
+      <c r="N80" t="s">
+        <v>268</v>
+      </c>
+      <c r="O80" t="s">
+        <v>269</v>
+      </c>
+      <c r="P80" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q80" t="str">
+        <f t="shared" si="11"/>
+        <v>fBodyBodyGyroMagmean</v>
+      </c>
+      <c r="R80" t="s">
+        <v>271</v>
+      </c>
+      <c r="S80" t="s">
+        <v>272</v>
+      </c>
+      <c r="T80" t="s">
+        <v>273</v>
+      </c>
+      <c r="U80" t="s">
+        <v>274</v>
+      </c>
+      <c r="V80" t="s">
+        <v>275</v>
+      </c>
+      <c r="W80" t="s">
+        <v>177</v>
+      </c>
+      <c r="X80" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24">
       <c r="A81" t="s">
         <v>79</v>
       </c>
       <c r="B81" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>avg(fBodyBodyGyroMagmeanFreq)</v>
       </c>
       <c r="C81" t="s">
         <v>166</v>
       </c>
       <c r="D81" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>fBodyBodyGyroMagmeanFreq IS NOT NULL AND</v>
       </c>
       <c r="E81" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="J81" t="s">
+        <v>277</v>
+      </c>
+      <c r="K81" t="s">
+        <v>177</v>
+      </c>
+      <c r="L81" t="s">
+        <v>176</v>
+      </c>
+      <c r="M81" t="str">
+        <f t="shared" si="10"/>
+        <v>avg(fBodyBodyGyroMagmeanFreq)</v>
+      </c>
+      <c r="N81" t="s">
+        <v>268</v>
+      </c>
+      <c r="O81" t="s">
+        <v>269</v>
+      </c>
+      <c r="P81" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q81" t="str">
+        <f t="shared" si="11"/>
+        <v>fBodyBodyGyroMagmeanFreq</v>
+      </c>
+      <c r="R81" t="s">
+        <v>271</v>
+      </c>
+      <c r="S81" t="s">
+        <v>272</v>
+      </c>
+      <c r="T81" t="s">
+        <v>273</v>
+      </c>
+      <c r="U81" t="s">
+        <v>274</v>
+      </c>
+      <c r="V81" t="s">
+        <v>275</v>
+      </c>
+      <c r="W81" t="s">
+        <v>177</v>
+      </c>
+      <c r="X81" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24">
       <c r="A82" t="s">
         <v>80</v>
       </c>
       <c r="B82" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>avg(fBodyBodyGyroJerkMagmean)</v>
       </c>
       <c r="C82" t="s">
         <v>167</v>
       </c>
       <c r="D82" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>fBodyBodyGyroJerkMagmean IS NOT NULL AND</v>
       </c>
       <c r="E82" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="J82" t="s">
+        <v>277</v>
+      </c>
+      <c r="K82" t="s">
+        <v>177</v>
+      </c>
+      <c r="L82" t="s">
+        <v>176</v>
+      </c>
+      <c r="M82" t="str">
+        <f t="shared" si="10"/>
+        <v>avg(fBodyBodyGyroJerkMagmean)</v>
+      </c>
+      <c r="N82" t="s">
+        <v>268</v>
+      </c>
+      <c r="O82" t="s">
+        <v>269</v>
+      </c>
+      <c r="P82" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q82" t="str">
+        <f t="shared" si="11"/>
+        <v>fBodyBodyGyroJerkMagmean</v>
+      </c>
+      <c r="R82" t="s">
+        <v>271</v>
+      </c>
+      <c r="S82" t="s">
+        <v>272</v>
+      </c>
+      <c r="T82" t="s">
+        <v>273</v>
+      </c>
+      <c r="U82" t="s">
+        <v>274</v>
+      </c>
+      <c r="V82" t="s">
+        <v>275</v>
+      </c>
+      <c r="W82" t="s">
+        <v>177</v>
+      </c>
+      <c r="X82" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24">
       <c r="A83" t="s">
         <v>81</v>
       </c>
       <c r="B83" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>avg(fBodyBodyGyroJerkMagmeanFreq)</v>
       </c>
       <c r="C83" t="s">
         <v>168</v>
       </c>
       <c r="D83" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>fBodyBodyGyroJerkMagmeanFreq IS NOT NULL AND</v>
       </c>
       <c r="E83" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="J83" t="s">
+        <v>277</v>
+      </c>
+      <c r="K83" t="s">
+        <v>177</v>
+      </c>
+      <c r="L83" t="s">
+        <v>176</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="10"/>
+        <v>avg(fBodyBodyGyroJerkMagmeanFreq)</v>
+      </c>
+      <c r="N83" t="s">
+        <v>268</v>
+      </c>
+      <c r="O83" t="s">
+        <v>269</v>
+      </c>
+      <c r="P83" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q83" t="str">
+        <f t="shared" si="11"/>
+        <v>fBodyBodyGyroJerkMagmeanFreq</v>
+      </c>
+      <c r="R83" t="s">
+        <v>271</v>
+      </c>
+      <c r="S83" t="s">
+        <v>272</v>
+      </c>
+      <c r="T83" t="s">
+        <v>273</v>
+      </c>
+      <c r="U83" t="s">
+        <v>274</v>
+      </c>
+      <c r="V83" t="s">
+        <v>275</v>
+      </c>
+      <c r="W83" t="s">
+        <v>177</v>
+      </c>
+      <c r="X83" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24">
       <c r="A84" t="s">
         <v>82</v>
       </c>
       <c r="B84" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>avg(angletBodyAccMeangravity)</v>
       </c>
       <c r="C84" t="s">
         <v>169</v>
       </c>
       <c r="D84" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>angletBodyAccMeangravity IS NOT NULL AND</v>
       </c>
       <c r="E84" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="J84" t="s">
+        <v>277</v>
+      </c>
+      <c r="K84" t="s">
+        <v>177</v>
+      </c>
+      <c r="L84" t="s">
+        <v>176</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="10"/>
+        <v>avg(angletBodyAccMeangravity)</v>
+      </c>
+      <c r="N84" t="s">
+        <v>268</v>
+      </c>
+      <c r="O84" t="s">
+        <v>269</v>
+      </c>
+      <c r="P84" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q84" t="str">
+        <f t="shared" si="11"/>
+        <v>angletBodyAccMeangravity</v>
+      </c>
+      <c r="R84" t="s">
+        <v>271</v>
+      </c>
+      <c r="S84" t="s">
+        <v>272</v>
+      </c>
+      <c r="T84" t="s">
+        <v>273</v>
+      </c>
+      <c r="U84" t="s">
+        <v>274</v>
+      </c>
+      <c r="V84" t="s">
+        <v>275</v>
+      </c>
+      <c r="W84" t="s">
+        <v>177</v>
+      </c>
+      <c r="X84" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24">
       <c r="A85" t="s">
         <v>83</v>
       </c>
       <c r="B85" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>avg(angletBodyAccJerkMeangravityMean)</v>
       </c>
       <c r="C85" t="s">
         <v>170</v>
       </c>
       <c r="D85" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>angletBodyAccJerkMeangravityMean IS NOT NULL AND</v>
       </c>
       <c r="E85" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="J85" t="s">
+        <v>277</v>
+      </c>
+      <c r="K85" t="s">
+        <v>177</v>
+      </c>
+      <c r="L85" t="s">
+        <v>176</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="10"/>
+        <v>avg(angletBodyAccJerkMeangravityMean)</v>
+      </c>
+      <c r="N85" t="s">
+        <v>268</v>
+      </c>
+      <c r="O85" t="s">
+        <v>269</v>
+      </c>
+      <c r="P85" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q85" t="str">
+        <f t="shared" si="11"/>
+        <v>angletBodyAccJerkMeangravityMean</v>
+      </c>
+      <c r="R85" t="s">
+        <v>271</v>
+      </c>
+      <c r="S85" t="s">
+        <v>272</v>
+      </c>
+      <c r="T85" t="s">
+        <v>273</v>
+      </c>
+      <c r="U85" t="s">
+        <v>274</v>
+      </c>
+      <c r="V85" t="s">
+        <v>275</v>
+      </c>
+      <c r="W85" t="s">
+        <v>177</v>
+      </c>
+      <c r="X85" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24">
       <c r="A86" t="s">
         <v>84</v>
       </c>
       <c r="B86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>avg(angletBodyGyroMeangravityMean)</v>
       </c>
       <c r="C86" t="s">
         <v>171</v>
       </c>
       <c r="D86" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>angletBodyGyroMeangravityMean IS NOT NULL AND</v>
       </c>
       <c r="E86" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="J86" t="s">
+        <v>277</v>
+      </c>
+      <c r="K86" t="s">
+        <v>177</v>
+      </c>
+      <c r="L86" t="s">
+        <v>176</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="10"/>
+        <v>avg(angletBodyGyroMeangravityMean)</v>
+      </c>
+      <c r="N86" t="s">
+        <v>268</v>
+      </c>
+      <c r="O86" t="s">
+        <v>269</v>
+      </c>
+      <c r="P86" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q86" t="str">
+        <f t="shared" si="11"/>
+        <v>angletBodyGyroMeangravityMean</v>
+      </c>
+      <c r="R86" t="s">
+        <v>271</v>
+      </c>
+      <c r="S86" t="s">
+        <v>272</v>
+      </c>
+      <c r="T86" t="s">
+        <v>273</v>
+      </c>
+      <c r="U86" t="s">
+        <v>274</v>
+      </c>
+      <c r="V86" t="s">
+        <v>275</v>
+      </c>
+      <c r="W86" t="s">
+        <v>177</v>
+      </c>
+      <c r="X86" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24">
       <c r="A87" t="s">
         <v>85</v>
       </c>
       <c r="B87" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>avg(angletBodyGyroJerkMeangravityMean)</v>
       </c>
       <c r="C87" t="s">
         <v>172</v>
       </c>
       <c r="D87" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>angletBodyGyroJerkMeangravityMean IS NOT NULL AND</v>
       </c>
       <c r="E87" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="J87" t="s">
+        <v>277</v>
+      </c>
+      <c r="K87" t="s">
+        <v>177</v>
+      </c>
+      <c r="L87" t="s">
+        <v>176</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="10"/>
+        <v>avg(angletBodyGyroJerkMeangravityMean)</v>
+      </c>
+      <c r="N87" t="s">
+        <v>268</v>
+      </c>
+      <c r="O87" t="s">
+        <v>269</v>
+      </c>
+      <c r="P87" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q87" t="str">
+        <f t="shared" si="11"/>
+        <v>angletBodyGyroJerkMeangravityMean</v>
+      </c>
+      <c r="R87" t="s">
+        <v>271</v>
+      </c>
+      <c r="S87" t="s">
+        <v>272</v>
+      </c>
+      <c r="T87" t="s">
+        <v>273</v>
+      </c>
+      <c r="U87" t="s">
+        <v>274</v>
+      </c>
+      <c r="V87" t="s">
+        <v>275</v>
+      </c>
+      <c r="W87" t="s">
+        <v>177</v>
+      </c>
+      <c r="X87" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24">
       <c r="A88" t="s">
         <v>86</v>
       </c>
       <c r="B88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>avg(angleXgravityMean)</v>
       </c>
       <c r="C88" t="s">
         <v>173</v>
       </c>
       <c r="D88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>angleXgravityMean IS NOT NULL AND</v>
       </c>
       <c r="E88" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="J88" t="s">
+        <v>277</v>
+      </c>
+      <c r="K88" t="s">
+        <v>177</v>
+      </c>
+      <c r="L88" t="s">
+        <v>176</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="10"/>
+        <v>avg(angleXgravityMean)</v>
+      </c>
+      <c r="N88" t="s">
+        <v>268</v>
+      </c>
+      <c r="O88" t="s">
+        <v>269</v>
+      </c>
+      <c r="P88" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q88" t="str">
+        <f t="shared" si="11"/>
+        <v>angleXgravityMean</v>
+      </c>
+      <c r="R88" t="s">
+        <v>271</v>
+      </c>
+      <c r="S88" t="s">
+        <v>272</v>
+      </c>
+      <c r="T88" t="s">
+        <v>273</v>
+      </c>
+      <c r="U88" t="s">
+        <v>274</v>
+      </c>
+      <c r="V88" t="s">
+        <v>275</v>
+      </c>
+      <c r="W88" t="s">
+        <v>177</v>
+      </c>
+      <c r="X88" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24">
       <c r="A89" t="s">
         <v>87</v>
       </c>
       <c r="B89" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>avg(angleYgravityMean)</v>
       </c>
       <c r="C89" t="s">
         <v>174</v>
       </c>
       <c r="D89" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>angleYgravityMean IS NOT NULL AND</v>
       </c>
       <c r="E89" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="J89" t="s">
+        <v>277</v>
+      </c>
+      <c r="K89" t="s">
+        <v>177</v>
+      </c>
+      <c r="L89" t="s">
+        <v>176</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="10"/>
+        <v>avg(angleYgravityMean)</v>
+      </c>
+      <c r="N89" t="s">
+        <v>268</v>
+      </c>
+      <c r="O89" t="s">
+        <v>269</v>
+      </c>
+      <c r="P89" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q89" t="str">
+        <f t="shared" si="11"/>
+        <v>angleYgravityMean</v>
+      </c>
+      <c r="R89" t="s">
+        <v>271</v>
+      </c>
+      <c r="S89" t="s">
+        <v>272</v>
+      </c>
+      <c r="T89" t="s">
+        <v>273</v>
+      </c>
+      <c r="U89" t="s">
+        <v>274</v>
+      </c>
+      <c r="V89" t="s">
+        <v>275</v>
+      </c>
+      <c r="W89" t="s">
+        <v>177</v>
+      </c>
+      <c r="X89" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24">
       <c r="A90" t="s">
         <v>88</v>
       </c>
       <c r="B90" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>avg(angleZgravityMean)</v>
       </c>
       <c r="C90" t="s">
@@ -3171,6 +6989,53 @@
       </c>
       <c r="E90" t="s">
         <v>266</v>
+      </c>
+      <c r="J90" t="s">
+        <v>277</v>
+      </c>
+      <c r="K90" t="s">
+        <v>177</v>
+      </c>
+      <c r="L90" t="s">
+        <v>176</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="10"/>
+        <v>avg(angleZgravityMean)</v>
+      </c>
+      <c r="N90" t="s">
+        <v>268</v>
+      </c>
+      <c r="O90" t="s">
+        <v>269</v>
+      </c>
+      <c r="P90" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q90" t="str">
+        <f t="shared" si="11"/>
+        <v>angleZgravityMean</v>
+      </c>
+      <c r="R90" t="s">
+        <v>271</v>
+      </c>
+      <c r="S90" t="s">
+        <v>272</v>
+      </c>
+      <c r="T90" t="s">
+        <v>273</v>
+      </c>
+      <c r="U90" t="s">
+        <v>274</v>
+      </c>
+      <c r="V90" t="s">
+        <v>275</v>
+      </c>
+      <c r="W90" t="s">
+        <v>177</v>
+      </c>
+      <c r="X90" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>
